--- a/500all/speech_level/speeches_CHRG-114hhrg99782.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99782.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. The Committee will come to order. The Subcommittee on Courts, Intellectual Property, and the Internet will come to order. Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time. We welcome everyone here today to a hearing specifically on the role of the International Trade Commission (ITC) in patent litigation.    Imagine, if you will, a scenario under current law. A foreign patent assertion entity has their lawyer file a lawsuit against a domestic entity in order to have them take a license and pay some type of royalty. Under current law, once receiving even one dollar in royalty, they then sue a U.S. company for patent infringement in Federal court, and concurrently file a case in the ITC.    The defendant also files an interparty review before the Patent and Trademark Office, alleging, in validity, or at least substantial differences between the assertion and the product being produced. You now have, under current law, three separate adjudications at the same time. Under the law--and by the way, you do not have to imagine, this has happened--there can be discovery, oft times it is simple form discovery by the plaintiff; and for purposes of my opening statement, plaintiff and troll will be interchangeable.    Now, under current law, the PAE could succeed in getting an exclusion order against the defendant. Well, the alleged infringer could win, at PTAB, the claims that the patent is ruled invalid. But still, under current law would be prevented from manufacturing that product, since the exclusion order would be in effect until the Federal circuit gets around to reversing the ITC. And under current law, the Federal circuit reversals, you could be back in district court going through the whole trial process again. Again, if the PTO only rules that some patent claims are invalid or limited, but allows a few limited patent claims to remain, you get to do this all over again.    The International Trade Commission exists for one purpose: it is a necessary exclusion organization that protects American industry, industry being a broad term, from unfair competition; from, in fact, products coming through our border for a myriad of reasons.    It is a protectionist trade organization by definition. And I use that not in a pejorative way, but I use it in a fair way; that in fact, often, U.S. industries need protection from unfair trade practices.    When, in 1988, patents became part of it, most envisioned that you were simply talking about an entity that could not be reached in the Federal courts, that was sending in a product that was a knockoff of an American patent. And in that situation, it would be no different than, in fact, if you were sending counterfeit goods into the United States with somebody else's trademark on it.    The ITC exists, and will continue to exist, for those kinds of protections under any reform. However, in an era in which this Committee, on a broadly bipartisan basis, has recognized that troll activity needs to be prevented, we need to recognize that non-practicing entities are using the ITC not often, but often effectively, to extort additional dollars.    Plus, to be candid, it is our responsibility to preserve the constitutional right of an American entity to have their claims, whether plaintiff or defendant, adjudicated within the court constitutionally established, or often called an Article III court. Under the current law, Article I adjudication is occurring far too often. And not by the PTO, but rather, by the     I will just touch for a moment on two notable events. Several years ago, Kodak v. Apple in the ITC. Now there was a foreign importer somewhere there; an entity that could not be reached; an entity who had assets that were beyond the Federal court. The problem is, I cannot figure out which one it would be. Kodak was not, in fact, a domestic company to any greater extent than Apple. Both of them relied on extensive use of imported parts. Oddly enough, Apple had enough cash in the bank to buy Kodak in a moment's notice. And yet, Kodak went to the ITC asserting that they needed to get injunctive relief, or, if you will, trade relief, against Apple, as though the Federal court could not give them sufficient remedy.    Prior to the eBay decision, we could all have had a discussion about--an injunction is an injunction, whether it is called an exclusion or not. And in the 1990's, when I found myself in the ITC and in Federal court, they really were a question of how fast you got to the question of whether or not you were guilty and whether or not you were--the patent was valid, and whether or not, quite frankly, you were going to be enjoined. But that is not the case today.    Post-eBay, it is not an effective or honest case to exclude a product that ultimately, if they failed in district court, would not be excluded, but rather, would be adjudicated for monies. Obviously, in the case of Apple, Apple could have not only paid all the damages, but could have bought Kodak on the open market.    Second case, one that Congressman Schiff and I both participated in with great frustration, was Broadcom v. Qualcomm in the ITC. Now, these were two companies whose CEOs could meet, 1 hour drive each, away from their corporate headquarters. Located less than 100 miles apart, they found themselves in the District of Columbia, in court, 3,000 miles--2,700 miles away. Why? Was it because Broadcom believed that Qualcomm, a company listed on the S&amp;P 500, was unable to pay damages? No. It was simply because the leverage of the ITC allowed them to go after, in this case not even Qualcomm directly, but products being imported bearing chips.    The merits of this case do not particularly make any difference. The question is, should Broadcom and Qualcomm been able to be in the ITC, while simultaneously in the district court? They were not in the ITC because they wanted or needed an exclusion order for its own sake. They were in the ITC because they wanted to use it as part of the leverage, hoping it would move quickly and bring about a settlement that they would take perhaps longer to get in district court. But ultimately, the money damages would have been the same.    This Committee has exclusive jurisdiction over patents. This Committee has exclusive jurisdiction over trademarks. This Committee has exclusive jurisdiction over the Article III courts. This Committee has exclusive jurisdiction over the bankruptcy courts. I do not consider that jurisdiction a jurisdictional fight.    In fact, I believe that the ITC has a reason to exist. It appropriately is a trade activity, and should be in the Ways and Means. But it is my hope that, through this hearing and likely legislation, that we can, in fact, straighten out a situation in which, if you should be in one court, another court, or in fact, at the PTO, that you not be simultaneously in all three, or that trolls be able to leverage one against the other. With that, I look forward to our witnesses and recognize the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman. Today we consider patent litigation at the International Trade Commission. The ITC is not widely known or understood outside of a narrow group of practitioners and interested parties. But it plays an important role in shaping trade policy in the United States. Among its duties is to adjudicate cases involving imports that allegedly infringe intellectual property rights, and to potentially exclude such products from entering the United States.    Because the ITC is becoming an increasingly popular venue for bringing patent infringement claims in recent years, it is appropriate for this Subcommittee to examine how the ITC handles patent litigation, and whether any legislative or regulatory changes are warranted.    When we last considered this topic in 2013, we did so in the context of the ongoing crisis of abusive patent litigation. We heard testimony that patent trolls had identified the ITC as a friendly forum, and were flooding the system with abusive and frivolous claims, particularly after the Supreme Court's 2006 decision in eBay v. Merck Exchange.    Prior to the eBay case, injunctions in patent cases were viewed as almost automatic. However, the court ruled that patent holders in district court cases must satisfy the same four-factor test applied to other plaintiffs seeking an injunction, including showing that monetary damages are insufficient to compensate the plaintiff, and that the plaintiff will suffer irreparable harm without an injunction.    By some estimates, the eBay standard reduced the chances of an injunction being granted to just 1 in 3. Concerns were raised that, after this decision, non-practicing entities, or NPEs, were flocking to the ITC, which does not apply the eBay analysis, and where an exclusion order is almost automatic if infringement is found.    The drastic step of an exclusion order can serve as a death knell for a business. As manufacturing has increasingly moved overseas in recent years, even an American company may find its products excluded from the U.S. if they are found to be infringing. Because the consequences of having one's product prevented from being imported into the U.S. are so great, NPEs were exploiting this risk to pressure defendants into settling even frivolous cases.    Since we last considered this issue, the ITC has taken some steps to attempt to address some of the concerns over NPEs and abusive litigation. For example, as ITC case law continues to evolve, NPEs, whose entire business model depends on litigation, may find it more difficult to establish that there is a domestic industry that would be threatened by the importation of a particular product, as is required under Section 337 of the Tariff Act.    In addition, the ITC has begun a pilot project, which it proposes to codify and expand, allowing the Commission to identify potentially case dispositive issues when the investigation begins, and direct the presiding judge to issue an initial determination of those issues within 100 days. If used to its full extent and made permanent, this may help weed out weak claims at an early stage and discourage many others from even being filed. Indeed, recent statistics indicate that filings by NPEs has dropped from its peak, between 2008 and 2011.    I hope our witnesses will help us to understand whether this reduction in filings is just temporary, or whether the ITC has adequately addressed the concern over abusive litigation through these and other measures. And if further action is necessary, does the ITC have sufficient tools at its disposal? Or is Congressional action required? I also look forward to a discussion of whether patent litigation at the ITC serves as a complement to district court litigation, or whether they conflict with each other.    As an independent, quasi-judicial Federal agency focused solely on trade, the ITC operates under a different set of rules, with a different mandate, than Article III courts. What sorts of incentives do plaintiffs have to pick district court or the ITC as an appropriate forum, or to file parallel litigation in both arenas? Are defendants being treated fairly in this process? And what are the implications for developing a uniform understanding of patent law, when it is being administered and interpreted by two different judicial bodies? Are any reforms needed? And if so, should Congress enact legislative changes? Or should they be accomplished through the regulatory process? I look forward to hearing from our witnesses about these and other important matters, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Issa. And welcome to--we only have six witnesses today, so I guess we will have to do the best we can with the subject.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t xml:space="preserve">    Mr. Issa. I thank the gentleman. All other Members will have 5 legislative days in which to place their opening statements in the record.    Today we have a distinguished panel of six witnesses, as the Ranking Member said. These witnesses' written statements will be entered in the record in entirety, and I ask that the witnesses summarize, in approximately 5 minutes, their opening statements.    For those who have not testified before, the lights are just like a traffic light. And we ask you to please go as fast or slow as you want on green, rush through the intersection on yellow, and stop on red. Before I introduce the witnesses, it is the Committee's standing rule that all witnesses be sworn.    So would you please all rise, and raise your right hand? Do all of you solemnly swear or affirm that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth?    Thank you, please be seated. Let the record reflect that all witnesses answered in the affirmative.    Our witnesses today include the former chairwoman of the International Trade Commission, Deanna Okun, partner at Adduci and Mastriani and Schaumberg, LLP. Boy, that is a good one. But they get better.    The second one is--and welcome--John Thorne, partner at Kellogg, Huber, Hansen, Todd, Evans and Figel, PLLC.    And next we have Mr. Mark Whitaker, partner at Morrison and Foerster, thank you.    Dr. Fiona Scott Morton, professor of economics at the Yale School of Management; Mr. Thomas Stoll, principal of Stoll IP Consulting, LLC, and Mr. Dominic Bianchi, general counsel at the International Trade Commission.    So I want to welcome all of you. I recognize that each of you, perhaps except for the government witnesses, have both your written statements and individual testimony. I would suggest that, if you want to deviate from your written statement, remember your entire written statement will be in the record. But I would ask that you remain within the 5 minutes.    With that, Ms. Okun.</t>
   </si>
   <si>
-    <t>Okun</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Okun. Thank you, Chairman Issa, Ranking Member Nadler, and other Members of the Subcommittee. I welcome the opportunity to testify for you today. I have been privileged to be part of the international trade community for more than 25 years. Let me reiterate that I appear today in my personal capacity, and not on behalf of Adduci and Mastriani and Schaumberg, or any of our clients. And, of course, I do not speak for the Commission or for my former colleagues.    My purpose is to share my perspective based on my 12 years serving on the International Trade Commission. I will focus my remarks on a few key points, but will refer you to my written statement.    First, the ITC is an expert trade agency that provides an effective remedy to combat the pervasive problem of infringing imports, providing essential protection to U.S. IPR owners and fostering U.S. competitiveness and innovation.    Second, through its decisions and administrative actions, the ITC has sent a clear message that only entities with substantial domestic ties will succeed. The data demonstrate that NPEs rarely file cases with the ITC, and that particularly with respect to PAEs, they rarely succeed. And it is important to set context. We are talking about a docket of 36 cases this year; and of those 36, 34 of 36 were brought by manufacturing entities. In 2014, it was 36 of 39. At its high water mark in 2011, there were 69 investigations.    So we are talking about a very small docket, which I say will remain so because of the high threshold to succeed, and because of the institutional requirements to be at the ITC.    Third, the ITC, perhaps because it is small, non-partisan, quasi-judicial, has been nimble in addressing litigation issues by pursuing case management and rule changes to reduce the cost and burden of litigation. This type of agency activity should be encouraged, not criticized. We want our most innovative companies to have more, not fewer, tools to address the very real and costly problem of infringement.    In that respect, Section 337, in my view, is functioning as Congress intended, and recent proposals to amend the statute are unnecessary and likely counterproductive. Moreover, our trading partners increasingly recognize that innovation is the fundamental competitive advantage. Countries like China are modifying their laws to strengthen IP protection, and the European Union has moved toward a unitary patent court. It would send the wrong message for the United States to weaken protections at a time when U.S. trade negotiators have been working hard to raise IPR standards in agreements such as TPP and TTIP.    Allow me to elaborate briefly. There is a direct link between the protection of U.S. IPR and American competitiveness. Constitutionally protected patent rights incentivize investments and innovation, a key engine of economic growth. IP-intensive industries account for more than $5 trillion in value added, or approximately 35 percent of GDP.    From a trade perspective, we must have effective border remedies to stop unfairly traded and infringing imports. The ITC serves as the front line in protecting domestic industries. As the Joint Economic Committee found in 2012, infringement of IPR is a pervasive problem that harms companies, consumers, and all levels of government.    Between 2008 and 2015, approximately 80 percent of the products accused in Section 337 were imported from China. And while this hearing is focused on investigations involving patents, Section 337 also covers other unfair acts, such as copyright, trademark, and trade secret laws. Moreover, for many companies, the advantages of expeditious adjudication, experienced ITC judges, in rem jurisdiction, and effective remedies at the border, can make the difference in their commercial success.    The data simply do not support the assertion that the ITC has a patent troll problem. Overall, Section 337 filings have decreased significantly in the past few years, from what was already a low number, particularly compared to district courts. The number of cases institute in each calendar year, from 2000 to 2015, has steadily decreased from 69 to 36. Complainants at the ITC are overwhelmingly domestic industries that manufacture a product.    Moreover, of the 67 exclusion orders issued by the Commission in the last 10 years, only four were on behalf of NPEs. The ITC is not inundated with frivolous cases, nor is its caseload unmanageable. But that does not mean NPEs--and I do mean NPEs, not PAEs--should not have the opportunity to consider the ITC as they evaluate their options for protecting their intellectual property.    Congress acknowledged the critical role of IPR as a source of value by expanding Section 337 in 1988 to cover companies making a substantial investment in a patent's exploitation, including engineering, research and development, or licensing.    Yet over the last 5 years, it has become more difficult to establish a domestic industry and obtain relief and, since 2011, only three NPEs have succeeded in establishing a licensing-based domestic industry. I realize, Mr. Chairman, that my red light is coming on, and I hope that, in listening to Mr. Bianchi's testimony, you will hear about the many actions the ITC has taken to help combat any type of abuse at the ITC. Thank you.</t>
   </si>
   <si>
@@ -109,27 +97,18 @@
     <t xml:space="preserve">    Mr. Issa. Yeah, yeah. For all the witnesses here on the dais, of course, we are familiar with the acronyms. But to the greatest extent possible, at least once in your testimony, make sure that you describe fully, because for the record, a lot of people, including the people behind you in the audience, may not know the shortened terms. Thank you. Mr. Thorne?</t>
   </si>
   <si>
-    <t>Thorne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thorne. There, I have got my microphone. Mr. Chairman, Mr. Ranking Member, and other members of the Subcommittee, thank you for inviting me today.    I have not worked in the government in this area, but I have represented companies on both sides, bringing cases at the ITC, defending cases at the ITC, bringing injunction cases in Federal district court, defending against injunction cases in district court.    And since the written testimony is going to be submitted, I just thought I would summarize a little bit about why, from the private point of view, why would somebody bring a case to the ITC, as opposed to going to district court? And as you have seen in the numbers, that both forums are usually available. We did a quick count of the cases we believe were NPE cases at the ITC--NPE meaning non-practicing entities of the ITC. We did a quick count to see, well, how many of those organizations were American companies that could have been sued in district court?    And the answer is almost all of them. And it is something like two-thirds of all the cases, not just NPE cases, but all of them, actually have a parallel district court case, as the Chairman pointed out at the beginning.    So you have a choice. You can sue at the ITC, you can sue at the district. What are the considerations? I count four. I do not know if, in my 5 minutes, I will get through all four, but the first one is leverage. Just pure leverage.    I have an example similar to the one the Chairman opened with, similar to the Broadcom case, which I was involved in. My example involved one New York company bringing an ITC case against another New York company. One was in Manhattan, the other was in Long Island. They were maybe 20 miles apart. They could have sued in the eastern district of New York, probably in the southern district of New York, maybe other places where they did business. But the plaintiff who I represented picked the ITC because its remedy would be uniquely leveraging--if I can use the L word--it gave power--if we succeeded in obtaining a recommended exclusion order, that would give a lot of leverage.    Now, the defendant, or the respondent in the case was a cable TV company. Most of their business is people installing wires, fiber optic cables to homes, and managing central hubs where the TV signals come in. They engage with programmers, the Hollywood and New York programming.    So almost all of the American activity of the respondent had nothing to do with what we targeted. We targeted the set top boxes, which they imported, or some of the components of the set top box were imported. We had a patent that covered one of the many functions of the set top box.    So you have got a fairly complicated business doing lots of things, but if they want to add a customer, they need another set top box; or if a customer's box breaks, they need to replace the set top box. The set top box itself is kind of complicated, many thousands of functions inside it. We had a patent that addressed one of the functions.    The ITC remedy would allow us to stop them adding customers, because one of the many functions in the set top box was infringing a patent we owned. So we could go to district court, and what I think would have happened at district court is, under the eBay case, under the normal balancing of equities the district courts conduct, the district court would say, ``Well, I see a harm to the plaintiff. Your patent is being infringed.    But I see a much greater harm to the defendant because it is got a large business that will be disrupted if they cannot get set top boxes. In fact, I see a harm to the public because, you know, it is basketball season. You want to watch games.'' And so, if you balance the harms the way a district court does in a normal injunction case, I think the district court would have said, ``Well, let's measure your money damages.'' You will get money for the patent infringement. Maybe over some period of time, the defendant will be required to stop the infringement, but no immediate loss of ability to add customers. That would not have been the remedy at district court. So where do you get leverage? You get leverage at the     Now, I have also brought injunction cases in the district court. I brought a case against a startup telephone company, and I won a damage remedy for $50 million, and I won an injunction, and I then traded the injunction for all the money they had, which was quite a bit more than 50 million. I gave a portion of that to intercity educational charities. We were pleased to do a little bit of good in the case. But you get leverage with an injunction. That was a case where an injunction in district court was deserved, based on the facts. But the difference between a damage remedy and injunctive remedy is, there is a lot of daylight there.    So just briefly, three other reasons that you might consider the ITC instead of a district court, as one of former Commissioner Okun's partners advertises, the ITC is less likely to invalidate patents, just--that is in practice.    The same rules apply, but the ITC tends to throw out a bad patent about half as often as a district court. The ITC will enforce standard essential patents. That is a patent that governs a standard. And last, the ITC does not follow what this Congress passed in 2011 that says you cannot bring in 30 or 40 or 50 different respondents in a single case. You have to sue them individually in district court. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Thanks for your experience. Mr. Whitaker.</t>
   </si>
   <si>
-    <t>Whitaker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitaker. Mr. Chairman and distinguished Members of the Subcommittee, thank you for convening this hearing, and for the opportunity to testify. It is an honor to speak with you regarding this important topic today. I am a partner with Morrison and Foerster, and I have practiced before the ITC, district courts, and Court of Federal Claims for the past 24 years. I am currently the president-elect of the American Intellectual Property Law Association, and serve as a member of the counsel for the ABA section of Intellectual Property Law. I appear today in my individual capacity, however, and not on behalf of my firm or any of its clients, the AIPLA or the ABA.    I offer a few litigator's observations about the ITC's policies and effectiveness in combatting abusive litigation by non-practicing entities, as well as overlapping considerations for litigants bringing patent complaints before the ITC and U.S. district courts, and I do so referring in part to H.R. 4829, entitled Trade Protection Not Troll Protection Act.    Congress intended that the Commission provide the owners of intellectual property rights with broad protections against a wide range of unfair acts of importation. Section 337 is more than a mere surrogate to the district court to the application of U.S. patent laws to infringing imports. Instead, it is directed to trade protection that is informed by U.S. patent law. At bottom, Section 337 protects American jobs and American market strength.    First, with respect to the domestic industry requirement, complainants already have to establish that a U.S. licensing industry exists related to patents being asserted in cases being based on licensing. The proposed legislation would not allow the complainant to rely on the licensing activity unless it is able to show that, ``The license leads to the adoption and development of articles that incorporate the claimed patent.''    While this change could potentially limit the ability of NPEs to use the Section 337 in practice, investigations brought by such entities do not account for many investigations--three in 2014, two in 2015, and just one in the first quarter of 2016. Further, prior to 2014, entities that manufactured and patented articles in the U.S. had a greater burden of proving their domestic industry than entities that relied on their U.S. licensing activities.    As recently confirmed by the Federal circuit, however, establishing a domestic industry based on licensing now requires proof of an article that practices the patent in suit. There also needs to be shown a nexus between the asserted patent and the U.S. investment in that patent when the domestic industry evidence is based on licensing.    With respect to the public interest issues, the Commission introduced new rules that require complainants to submit a separate statement providing specific content with respect to the public interest factors. These rules also provide members of the public, including proposed respondents, an opportunity to respond to the complainant's statement and highlight public interest issues before institutions so the Commission can direct the administrative law judge to make a full record and recommendation on such issues in appropriate cases.    Next, the proposed legislation would require that a licensee join an investigation as a co-complainant in order for licensing activities to qualify under the domestic industry prong. This would require, for example, a research and development entity, such as a university, to persuade one or more of its licensees to agree to be a co-complainant in order to make use of Section 337.    Also, for example, a technology company that licenses some subset of its patent portfolios to others to exploit the technology and that does not exploit that particular technology itself because of its business structure or economic objectives might be impacted negatively by provisions in a bill that tries to reduce NPE filings at the ITC. Remember that Congress intended to open the ITC up to certain non-practicing entities with its 1988 amendments as, ``such a change would enable universities and small businesses who do not have the capital to actually make good in the United States to still have access to the ITC forum for the protection of their rights.'' The Commission also unveiled, as was previously stated, a new 100-day program aimed at providing expedited investigations without burden and cost of a full length of investigation.    For both, legislation may also have the effect of importing the eBay injunction criteria into the ITC's public interest analysis. But the Federal circuit has held that the eBay factors are not applicable in these investigations because of the different statutory underpinnings for relief before the Commission.    Moreover, inadequacy of money damages is not applicable in Section 337 investigations, and as such, there is no equitable balancing of purely private remedial interests, and Congress eliminated the need to establish industry in a domestic--to a domestic industry and investigation covering the statutory acts.    As I see that my time has come to an end, I will leave the balance of my statement for the written record.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. And we thank you. Dr. Scott Morton.</t>
   </si>
   <si>
-    <t>Scott Morton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Scott Morton. Thank you very much, Mr. Chairman, Ranking Members and Members of the Committee, for the invitation to testify today. I am a professor of economics at Yale, I am a former chief economist at the Department of Justice Antitrust Division, and I have worked on a number of ITC cases. The basic problem here is----</t>
   </si>
   <si>
@@ -148,27 +127,18 @@
     <t xml:space="preserve">    Mr. Issa. Thank you. It is now my pleasure to recognize the Chairman of the full Committee, Mr. Goodlatte, for his opening statement.</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Mr. Chairman, thank you for your forbearance. I want to especially thank Mr. Stoll and Mr. Bianchi, to interrupt you right as you were ready to go, but I do have to be in two places at one time, so I want to share my thoughts.    Abusive patent litigation is a drag on our economy. Everyone from independent inventors to startups to mid- and large-size businesses face this constant threat. Many of these lawsuits are filed against small and medium-size businesses, targeting a settlement just under what it would cost for litigation, knowing that these businesses will want to avoid costly litigation and probably pay up. And it is this type of tactic that has made the International Trade Commission a potentially attractive venue for patent cases.    The ITC has at its disposal the ability to issue exclusion orders that block the importation of infringing products into the United States. Since the ITC is a Federal agency and not an Article III court, it makes sense that it is limited to this single remedy.    In recent years, however, patent assertion entities have used the Commission as a forum to assert weak or poorly-issued patents against American businesses. It is evident that there are cases that have come before the ITC that probably should have been litigated exclusively in our U.S. district courts.    Nowhere is the disharmony between patent law and Article III court precedent more on display than the application of exclusion orders in technology cases in the ITC. For example, Congress established an important counterbalance to the blunt sanction of the exclusion order in the public interest test provided under Section 337. The statute requires the ITC to consider public health and welfare, and the impact of an exclusion order on competition in the marketplace before issuing an exclusion order.    Yet the ITC rarely exercises its responsibility to apply the public interest test. This failure to follow the law has particularly damaging results in today's technology markets in which products are often reliant on hundreds or thousands of patents. The ITC has the ability to take certain immediate steps within its statutory authority to correct these problems. The following are some steps stakeholders have recommended the ITC take to address this problem.    First, a return to a pre-2010 domestic industry standard that does not allow legal expenses, airplane flights and the like to satisfy the domestic industry requirement. Second, application of the public interest test and economic interest test at the beginning of Section 337 review for purposes of determining claims consideration, as well as the issuance of exclusion orders.    And third, based on the public interest and economic interest test analysis, articulation of standards that clarify which patent disputes should be adjudicated by the ITC, and those which are more properly addressed by U.S. district courts.    I look forward to hearing from the rest of the witnesses, but I will have to read your testimony since I am about to leave. And I do want to say that in addition to those remedies, I do think the suggestions of Dr. Scott Morton with regard to where the ITC jurisdiction should not exist--and it should be exclusively the jurisdiction of Article III courts--is also worthy of our consideration.    So I thank you all for your testimony here today, and Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman. Mr. Stoll.</t>
   </si>
   <si>
-    <t>Stoll</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stoll. Good morning, Chairman Issa, Ranking Member Nadler, and Members of the Subcommittee. Thank you for inviting me to testify today on patent litigation before the International Trade Commission. It is an honor to be here today to discuss this very important topic. My name is Tom Stoll, and for the last several years I have been advising clients and employers, including the ABA's Intellectual Property Law section, the Boeing Company, the USPTO, and the White House on issues relating to IP litigation and IP-related legislation, including proposed changes to the laws to limit litigation abuse in district courts and the ITC.    My advice is informed by more than 20 years of IP litigation experience with law firms, the USPTO's solicitor's Oofice, as a law clerk and staff attorney with the Federal circuit, all in cases filed in district courts, the ITC, the Federal circuit, and the U.S. Supreme Court. I would like to emphasize that I am testifying on my own behalf today and not on behalf of my current client, the ABA.    While ITC filings by patent owners certainly spiked in 2011, over the last few years the ITC has made great strides in reducing the risk that ITC proceedings can be misused. The ITC's own statistics show that the number of investigations instituted has dropped to historically consistent numbers, and that the number of filings by non-practicing entities is lower than it was before the jump in overall filings.    To the extent the ITC had a patent troll problem, it appears the Commission has addressed it. U.S. patent laws are extremely beneficial to society, by providing the incentive for inventors and companies to invest in the development of groundbreaking new technologies, knowing their investment can be protected, often enabling startups and other small companies to secure the funding they need to grow.    The ITC is charged with preventing unfair trade practices, including the theft or unauthorized use of intellectual property. It has the extraordinary authority to issue general exclusion orders barring all imports that infringe a patent.    In the U.S. Supreme Court's 2006 decision in eBay vs. MercExchange, the court held that a district court cannot automatically issue an injunction in a patent case. Patent owners, including non-practicing entities, began asserting their patents in the ITC with much greater frequency. The ITC had become a more attractive venue for those seeking the threat of an injunction, and many argued, was being used to extract unjust settlements.    Two recent developments, however, have significantly reduced the risk that an ITC proceeding based on frivolous claims could be used to unjustly extract a settlement. First, the Commission has applied the domestic industry requirement much more rigorously. Second, the ITC has instituted a 100-day program to quickly dispense with cases that lack merit, and thereby preventing abuse.    Additionally, recent U.S. Supreme Court decisions significantly limiting the scope of patent-eligible subject matter and requiring greater clarity and patent claiming may also deter some patent owners from filing claims of infringement in the ITC. As a result, the number of cases instituted by the ITC has dropped in recent years from 69 in 2011 to 36 in 2015. Non-practicing entities were the complainants in only two of the 36 investigations instituted last year.    Let me explain how the ITC has changed its application of the domestic industry requirement. Under that requirement, a party much show that there is a significant or substantial investment in a U.S. industry that requires protection. Until very recently, a patent owner could satisfy the requirement simply by establishing the substantiality of its economic investment and licensing activities.    In the last few years, however, the Commission began to require more, and the Federal circuit now seems to agree. In Motiva, for example, the Federal circuit affirmed the Commission's finding of no domestic industry, stressing that the complainant must show that the licensing program was being used to encourage adoption and development of articles that incorporated the patented technology.    In LSI, the Federal circuit again affirmed a Commission determination that a domestic industry did not exist because the complainant's licensing activities did not relate specifically to articles protected by the asserted patent.    The ITC's new 100-day program is designed to help companies avoid the significant expense associated with litigating a full-blown proceeding where the claim is baseless, and to deter those seeking to leverage that expense to extract an unjust settlement. It enables the Commission to quickly resolve an investigation by requiring that the ALJ rule on a dispositive issue, such as lack of domestic industry, within 100 days of institution of the investigation.    These efforts and the resulting reduction, in the number of cases that have been instituted in the last few years, appear to have gone far to address concerns that the ITC has become an attractive forum for patent owners whose cases lack merit, and who seek to leverage this proceeding to extract an unjust settlement. I am grateful to the Subcommittee for taking the time to conduct this hearing and for taking a close look at this important issue. I am honored to have been invited to speak with you today, and look forward to answering your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Mr. Bianchi.</t>
   </si>
   <si>
-    <t>Bianchi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bianchi. Mr. Chairman and distinguished Members of the Subcommittee, my name is Dominic Bianchi, and I am the general counsel of the U.S. International Trade Commission. Thank you for inviting me to appear today before you. As Mr. Conyers noted earlier on, the Commission is an independent quasi-judicial Federal agency. We are actually more unique than any other independent agency or commission that is out there. We do not do policy. We do not address policy. That is for Congress and the executive branch to do.    So I want to assure you that the Commission implements the law that Congress has passed. We will continue to implement that, based on the interpretations by the Federal circuit until Congress amends the law. If Congress does amend the law or the Federal circuit changes one of our decisions, we will implement that policy.    In Section 337 cases, however, the Commission sits akin to an Article III Court, as mentioned before, in hearing cases. The overwhelming majority of investigations that occur under the Section 337 before the Commission are based on claims of patent infringement. If a violation is found, as noted earlier, the statute allows for only two types of remedies, at the ITC--an exclusion order and/or a cease-and-desist order.    The Commission focuses on conducting expeditious, fair, and technically sound decision-making to resolve allegations of intellectual property infringement and other unfair acts. Similar to the Federal courts, a Section 337 investigation includes all aspects of patent disputes, including topics relating to validity, infringement, remedy, and competitive conditions. We apply the same law that the district courts do.    What differentiates the Commission, however, from Federal courts is that the Commission does not institute an investigation before the sufficiency of a complaint is assessed. This assessment includes the agency requesting input from the potential respondents and the public regarding whether there are statutory public interest considerations raised by the complaint. At the time of institution, if the Commission determines that there are any particular case-dispositive issues that may resolve the investigation within a matter of months, it may place it in an early disposition program, as mentioned earlier today.    Also as you have heard, the Commission has established a practice of responding to community input by initiating a variety of programs to more efficiently and expeditiously bring to a close those matters that otherwise would impose undue costs on parties, the Commission, and the broader system.    The Commission also determines whether the public interest considerations warrant the development of a full factual record regarding the statutory public interest factors, and thus it can delegate this issue to the administrative law judge for fact-finding. Once the investigation begins, the agency develops a complete administrative record based on discovery, provides a full and fair opportunity for the parties to present testimony and cross-examination at a hearing, and provides the parties with the opportunity to provide written briefs. The Commission staffs its investigatory process with IP experts, IP attorneys and qualified ALJs solely dedicated to adjudicating IP cases.    After the ALJ issues a final, initial determination, the parties have the opportunity to petition the Commission for review. Typically, if the Commission determines to review, it will ask the parties to respond to specific questions, including specific questions regarding the public interest factors.    If the Commission finds a violation and a remedy, and issues a remedy, the President of the United States has 60 days to review the order and determine whether to disapprove the order on policy grounds. Appeals of the Commission's decisions in Section 337 investigations are made to the U.S. Court of Appeals for the Federal Circuit--the same court that reviews patent decisions of the district courts.    The Commission recognizes the statutory mandate to resolve cases at the earliest practical time and has taken a variety of steps to do so. These include developing pilot programs, developing new procedural rules, and substantial investment in the Commission's electronic record system for case management. The Commission routinely seeks input in its processes and diligently considers feedback from stakeholders on ways to improve the processes and procedures. I welcome the Committee's views. Thank you.</t>
   </si>
   <si>
@@ -328,9 +298,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman. Dr. Scott Morton, you talked about there should be situations where the courts, Federal courts, should be involved, and not the ITC. Could you give me an example or two of a case or cases, any why?</t>
   </si>
   <si>
@@ -445,9 +412,6 @@
     <t>412379</t>
   </si>
   <si>
-    <t>Judy Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Mr. Thorne, you and other witnesses argue that the Supreme Court's decision in eBay vs. MercExchange, which made receiving an injunction more difficult in Federal court, had the effect of entities moving forward to the International Trade Commission. At the ITC, these entities could pursue an exclusion order with less vigorous tests. You also state that the ITC is an attractive forum for non-practicing entities because the ITC and district courts apply divergent joinder rules. Could you describe what effect this has on cases moving forward at the ITC?</t>
   </si>
   <si>
@@ -490,9 +454,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair. Thanks to all of you for spending time with us today. As you know, the DOJ opposes mergers or acquisitions when it finds that a transaction would unduly concentrate market share, eliminate competition to the detriment of consumers. So, for example, GE withdrew an attempted sale of its appliance business to Electrolux after the DOJ filed suit to block the sale based on similar types of concerns.    So I wanted to start with Dr. Morton. Do you think some of the same market conditions appear in ITC investigations and--where a complainant seeks to ban a large percentage of products and players in question?</t>
   </si>
   <si>
@@ -535,9 +496,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair. And I want to thank the witnesses for your presence here today and the informative testimony today. I will start with Ms. Okun. The ITC proceedings are limited in terms of the ultimate remedy to equitable relief. Is that correct?</t>
   </si>
   <si>
@@ -596,9 +554,6 @@
   </si>
   <si>
     <t>400245</t>
-  </si>
-  <si>
-    <t>Zoe Lofgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman, and thanks for this hearing and to each one of the witnesses for their useful testimony in making the issues before us very clear. I will be honest. The current jurisdiction of the ITC does seem at odds with manufacturing practices. I mean, if you have an American company that does some of its manufacturing overseas, it is still an American company, and that is frequently the case. So I am just not seeing what the value added is to have dual jurisdiction. And I think the idea that if you filed or you could have filed as an exclusion of jurisdiction makes a lot of sense to me.    I also think in terms of, you know, I do not think eBay got enough credit for what it did. I mean, eBay is a company in my district and they spent a lot of money and a lot of time pursuing a case they could have settled and successfully, and it did a world of good for the whole technology sector because prior to eBay, it was extortion time. And that potential for extortion exists, I think, in the ITC. That does not mean the Commissioners even see it because it is happening before it gets to you. So that is an additional reason not to undercut what the Supreme Court did. And I think we have got that situation now.    But I want to talk about another issue, and it relates to copyright. It is been reported last year that some copyright holders were considering using the FTC to force IS Internet service providers to block allegedly-infringing websites. Now this was a proposal that would trample the safe harbor protections in the DMCA. But it also was a remedy that Congress rejected in the Stop Online Piracy Act.    And I am sure all of us who were in Congress at that time remember the complete meltdown in the Congress. The phones were off the hook. We got seven million emails in an hour, and the country was up in arms about it. So, I understand that the Federal Circuit Court overturned the ITC decision. They have just rejected en banc a rehearing.    But I am wondering if we ought to make it very clear to the ITC that they do not have jurisdiction over digital transmissions to avoid--I mean, the fact that they would do something like that is shocking to me. And, you know, for the survivors of the SOPA markup here, and I am sure the Chairman recalls it very well, we do not want to get in that environment again. Dr. Morton, I mean you are nodding your head, what--do you have a comment--anybody who wants to comment on that I would welcome the----</t>
@@ -1159,11 +1114,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1183,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1211,11 +1162,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1235,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1263,11 +1210,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1287,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1315,11 +1258,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1339,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1367,11 +1306,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1391,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1419,11 +1354,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1443,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1471,11 +1402,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1495,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1523,11 +1450,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1547,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1575,11 +1498,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1599,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1627,11 +1546,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1651,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1679,11 +1594,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1703,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1731,11 +1642,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1755,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1783,11 +1690,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1807,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1835,11 +1738,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1859,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1887,11 +1786,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1911,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1939,11 +1834,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1963,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1991,11 +1882,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2015,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2043,11 +1930,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2067,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2095,11 +1978,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2119,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2147,11 +2026,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2171,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2199,11 +2074,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2223,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2251,11 +2122,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2275,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2301,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2327,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2353,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2379,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2405,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2431,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2457,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2483,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2509,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2535,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2561,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2587,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2613,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2639,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2665,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2691,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2717,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2743,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2769,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2795,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2821,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2847,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2875,11 +2698,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2899,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2925,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2951,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2979,11 +2794,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3003,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3031,11 +2842,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3055,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3083,11 +2890,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3107,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3135,11 +2938,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3159,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3187,11 +2986,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3211,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3237,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3263,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3289,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3315,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3341,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3367,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3393,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3419,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3445,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3471,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>104</v>
-      </c>
-      <c r="H91" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3497,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3523,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3549,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3575,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3601,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3627,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3653,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3679,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3705,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3731,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
-      </c>
-      <c r="G101" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3757,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3783,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>103</v>
-      </c>
-      <c r="G103" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3809,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3835,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
-      </c>
-      <c r="G105" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3861,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3889,11 +3634,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3913,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3939,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>103</v>
-      </c>
-      <c r="G109" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3965,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3991,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
-      </c>
-      <c r="G111" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4017,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4043,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>103</v>
-      </c>
-      <c r="G113" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4069,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4095,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>103</v>
-      </c>
-      <c r="G115" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4121,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4147,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>103</v>
-      </c>
-      <c r="G117" t="s">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4175,11 +3898,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4199,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>142</v>
-      </c>
-      <c r="G119" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4225,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4251,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>142</v>
-      </c>
-      <c r="G121" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4277,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4303,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
-      </c>
-      <c r="G123" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4329,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4355,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4381,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4407,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4435,11 +4138,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4459,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4485,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" t="s">
+        <v>131</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
         <v>143</v>
-      </c>
-      <c r="H130" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4513,11 +4210,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4537,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4563,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4589,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>157</v>
-      </c>
-      <c r="G134" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4615,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4641,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G136" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4667,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4693,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4719,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
-      </c>
-      <c r="G139" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4745,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4771,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
-      </c>
-      <c r="G141" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4797,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4823,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
+        <v>145</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>157</v>
-      </c>
-      <c r="G143" t="s">
-        <v>158</v>
-      </c>
-      <c r="H143" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4851,11 +4522,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4875,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>172</v>
-      </c>
-      <c r="G145" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4901,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4927,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>172</v>
-      </c>
-      <c r="G147" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4953,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4979,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>172</v>
-      </c>
-      <c r="G149" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5005,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5031,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5057,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>172</v>
-      </c>
-      <c r="G152" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5083,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5109,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>172</v>
-      </c>
-      <c r="G154" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5135,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5161,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>172</v>
-      </c>
-      <c r="G156" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5187,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5213,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>172</v>
-      </c>
-      <c r="G158" t="s">
+        <v>159</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
         <v>173</v>
-      </c>
-      <c r="H158" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5241,11 +4882,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5265,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5291,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>172</v>
-      </c>
-      <c r="G161" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5319,11 +4954,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5345,11 +4978,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5369,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>193</v>
-      </c>
-      <c r="G164" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5395,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5421,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>193</v>
-      </c>
-      <c r="G166" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5447,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5473,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>193</v>
-      </c>
-      <c r="G168" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5499,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5525,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>193</v>
-      </c>
-      <c r="G170" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5551,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5577,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>193</v>
-      </c>
-      <c r="G172" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5603,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5629,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>193</v>
-      </c>
-      <c r="G174" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5655,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5681,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>193</v>
-      </c>
-      <c r="G176" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5707,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5733,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>193</v>
-      </c>
-      <c r="G178" t="s">
+        <v>179</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
         <v>194</v>
-      </c>
-      <c r="H178" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5759,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5785,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>193</v>
-      </c>
-      <c r="G180" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5811,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5837,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>193</v>
-      </c>
-      <c r="G182" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5865,11 +5458,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5889,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>193</v>
-      </c>
-      <c r="G184" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5917,11 +5506,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5941,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>193</v>
-      </c>
-      <c r="G186" t="s">
-        <v>194</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5969,11 +5554,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5993,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6019,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6045,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6071,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6097,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6123,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6149,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6175,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6201,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6227,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6253,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6279,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>47</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6305,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6333,11 +5890,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6357,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6383,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6411,11 +5962,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6437,11 +5986,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6461,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6489,11 +6034,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6513,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6539,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6565,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6593,11 +6130,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6617,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6645,11 +6178,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6669,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6697,11 +6226,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6721,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6749,11 +6274,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99782.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99782.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. The Committee will come to order. The Subcommittee on Courts, Intellectual Property, and the Internet will come to order. Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time. We welcome everyone here today to a hearing specifically on the role of the International Trade Commission (ITC) in patent litigation.    Imagine, if you will, a scenario under current law. A foreign patent assertion entity has their lawyer file a lawsuit against a domestic entity in order to have them take a license and pay some type of royalty. Under current law, once receiving even one dollar in royalty, they then sue a U.S. company for patent infringement in Federal court, and concurrently file a case in the ITC.    The defendant also files an interparty review before the Patent and Trademark Office, alleging, in validity, or at least substantial differences between the assertion and the product being produced. You now have, under current law, three separate adjudications at the same time. Under the law--and by the way, you do not have to imagine, this has happened--there can be discovery, oft times it is simple form discovery by the plaintiff; and for purposes of my opening statement, plaintiff and troll will be interchangeable.    Now, under current law, the PAE could succeed in getting an exclusion order against the defendant. Well, the alleged infringer could win, at PTAB, the claims that the patent is ruled invalid. But still, under current law would be prevented from manufacturing that product, since the exclusion order would be in effect until the Federal circuit gets around to reversing the ITC. And under current law, the Federal circuit reversals, you could be back in district court going through the whole trial process again. Again, if the PTO only rules that some patent claims are invalid or limited, but allows a few limited patent claims to remain, you get to do this all over again.    The International Trade Commission exists for one purpose: it is a necessary exclusion organization that protects American industry, industry being a broad term, from unfair competition; from, in fact, products coming through our border for a myriad of reasons.    It is a protectionist trade organization by definition. And I use that not in a pejorative way, but I use it in a fair way; that in fact, often, U.S. industries need protection from unfair trade practices.    When, in 1988, patents became part of it, most envisioned that you were simply talking about an entity that could not be reached in the Federal courts, that was sending in a product that was a knockoff of an American patent. And in that situation, it would be no different than, in fact, if you were sending counterfeit goods into the United States with somebody else's trademark on it.    The ITC exists, and will continue to exist, for those kinds of protections under any reform. However, in an era in which this Committee, on a broadly bipartisan basis, has recognized that troll activity needs to be prevented, we need to recognize that non-practicing entities are using the ITC not often, but often effectively, to extort additional dollars.    Plus, to be candid, it is our responsibility to preserve the constitutional right of an American entity to have their claims, whether plaintiff or defendant, adjudicated within the court constitutionally established, or often called an Article III court. Under the current law, Article I adjudication is occurring far too often. And not by the PTO, but rather, by the     I will just touch for a moment on two notable events. Several years ago, Kodak v. Apple in the ITC. Now there was a foreign importer somewhere there; an entity that could not be reached; an entity who had assets that were beyond the Federal court. The problem is, I cannot figure out which one it would be. Kodak was not, in fact, a domestic company to any greater extent than Apple. Both of them relied on extensive use of imported parts. Oddly enough, Apple had enough cash in the bank to buy Kodak in a moment's notice. And yet, Kodak went to the ITC asserting that they needed to get injunctive relief, or, if you will, trade relief, against Apple, as though the Federal court could not give them sufficient remedy.    Prior to the eBay decision, we could all have had a discussion about--an injunction is an injunction, whether it is called an exclusion or not. And in the 1990's, when I found myself in the ITC and in Federal court, they really were a question of how fast you got to the question of whether or not you were guilty and whether or not you were--the patent was valid, and whether or not, quite frankly, you were going to be enjoined. But that is not the case today.    Post-eBay, it is not an effective or honest case to exclude a product that ultimately, if they failed in district court, would not be excluded, but rather, would be adjudicated for monies. Obviously, in the case of Apple, Apple could have not only paid all the damages, but could have bought Kodak on the open market.    Second case, one that Congressman Schiff and I both participated in with great frustration, was Broadcom v. Qualcomm in the ITC. Now, these were two companies whose CEOs could meet, 1 hour drive each, away from their corporate headquarters. Located less than 100 miles apart, they found themselves in the District of Columbia, in court, 3,000 miles--2,700 miles away. Why? Was it because Broadcom believed that Qualcomm, a company listed on the S&amp;P 500, was unable to pay damages? No. It was simply because the leverage of the ITC allowed them to go after, in this case not even Qualcomm directly, but products being imported bearing chips.    The merits of this case do not particularly make any difference. The question is, should Broadcom and Qualcomm been able to be in the ITC, while simultaneously in the district court? They were not in the ITC because they wanted or needed an exclusion order for its own sake. They were in the ITC because they wanted to use it as part of the leverage, hoping it would move quickly and bring about a settlement that they would take perhaps longer to get in district court. But ultimately, the money damages would have been the same.    This Committee has exclusive jurisdiction over patents. This Committee has exclusive jurisdiction over trademarks. This Committee has exclusive jurisdiction over the Article III courts. This Committee has exclusive jurisdiction over the bankruptcy courts. I do not consider that jurisdiction a jurisdictional fight.    In fact, I believe that the ITC has a reason to exist. It appropriately is a trade activity, and should be in the Ways and Means. But it is my hope that, through this hearing and likely legislation, that we can, in fact, straighten out a situation in which, if you should be in one court, another court, or in fact, at the PTO, that you not be simultaneously in all three, or that trolls be able to leverage one against the other. With that, I look forward to our witnesses and recognize the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>400289</t>
   </si>
   <si>
+    <t>Nadler</t>
+  </si>
+  <si>
+    <t>Jerrold</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman. Today we consider patent litigation at the International Trade Commission. The ITC is not widely known or understood outside of a narrow group of practitioners and interested parties. But it plays an important role in shaping trade policy in the United States. Among its duties is to adjudicate cases involving imports that allegedly infringe intellectual property rights, and to potentially exclude such products from entering the United States.    Because the ITC is becoming an increasingly popular venue for bringing patent infringement claims in recent years, it is appropriate for this Subcommittee to examine how the ITC handles patent litigation, and whether any legislative or regulatory changes are warranted.    When we last considered this topic in 2013, we did so in the context of the ongoing crisis of abusive patent litigation. We heard testimony that patent trolls had identified the ITC as a friendly forum, and were flooding the system with abusive and frivolous claims, particularly after the Supreme Court's 2006 decision in eBay v. Merck Exchange.    Prior to the eBay case, injunctions in patent cases were viewed as almost automatic. However, the court ruled that patent holders in district court cases must satisfy the same four-factor test applied to other plaintiffs seeking an injunction, including showing that monetary damages are insufficient to compensate the plaintiff, and that the plaintiff will suffer irreparable harm without an injunction.    By some estimates, the eBay standard reduced the chances of an injunction being granted to just 1 in 3. Concerns were raised that, after this decision, non-practicing entities, or NPEs, were flocking to the ITC, which does not apply the eBay analysis, and where an exclusion order is almost automatic if infringement is found.    The drastic step of an exclusion order can serve as a death knell for a business. As manufacturing has increasingly moved overseas in recent years, even an American company may find its products excluded from the U.S. if they are found to be infringing. Because the consequences of having one's product prevented from being imported into the U.S. are so great, NPEs were exploiting this risk to pressure defendants into settling even frivolous cases.    Since we last considered this issue, the ITC has taken some steps to attempt to address some of the concerns over NPEs and abusive litigation. For example, as ITC case law continues to evolve, NPEs, whose entire business model depends on litigation, may find it more difficult to establish that there is a domestic industry that would be threatened by the importation of a particular product, as is required under Section 337 of the Tariff Act.    In addition, the ITC has begun a pilot project, which it proposes to codify and expand, allowing the Commission to identify potentially case dispositive issues when the investigation begins, and direct the presiding judge to issue an initial determination of those issues within 100 days. If used to its full extent and made permanent, this may help weed out weak claims at an early stage and discourage many others from even being filed. Indeed, recent statistics indicate that filings by NPEs has dropped from its peak, between 2008 and 2011.    I hope our witnesses will help us to understand whether this reduction in filings is just temporary, or whether the ITC has adequately addressed the concern over abusive litigation through these and other measures. And if further action is necessary, does the ITC have sufficient tools at its disposal? Or is Congressional action required? I also look forward to a discussion of whether patent litigation at the ITC serves as a complement to district court litigation, or whether they conflict with each other.    As an independent, quasi-judicial Federal agency focused solely on trade, the ITC operates under a different set of rules, with a different mandate, than Article III courts. What sorts of incentives do plaintiffs have to pick district court or the ITC as an appropriate forum, or to file parallel litigation in both arenas? Are defendants being treated fairly in this process? And what are the implications for developing a uniform understanding of patent law, when it is being administered and interpreted by two different judicial bodies? Are any reforms needed? And if so, should Congress enact legislative changes? Or should they be accomplished through the regulatory process? I look forward to hearing from our witnesses about these and other important matters, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Issa. And welcome to--we only have six witnesses today, so I guess we will have to do the best we can with the subject.</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t xml:space="preserve">    Mr. Issa. I thank the gentleman. All other Members will have 5 legislative days in which to place their opening statements in the record.    Today we have a distinguished panel of six witnesses, as the Ranking Member said. These witnesses' written statements will be entered in the record in entirety, and I ask that the witnesses summarize, in approximately 5 minutes, their opening statements.    For those who have not testified before, the lights are just like a traffic light. And we ask you to please go as fast or slow as you want on green, rush through the intersection on yellow, and stop on red. Before I introduce the witnesses, it is the Committee's standing rule that all witnesses be sworn.    So would you please all rise, and raise your right hand? Do all of you solemnly swear or affirm that the testimony that you are about to give will be the truth, the whole truth, and nothing but the truth?    Thank you, please be seated. Let the record reflect that all witnesses answered in the affirmative.    Our witnesses today include the former chairwoman of the International Trade Commission, Deanna Okun, partner at Adduci and Mastriani and Schaumberg, LLP. Boy, that is a good one. But they get better.    The second one is--and welcome--John Thorne, partner at Kellogg, Huber, Hansen, Todd, Evans and Figel, PLLC.    And next we have Mr. Mark Whitaker, partner at Morrison and Foerster, thank you.    Dr. Fiona Scott Morton, professor of economics at the Yale School of Management; Mr. Thomas Stoll, principal of Stoll IP Consulting, LLC, and Mr. Dominic Bianchi, general counsel at the International Trade Commission.    So I want to welcome all of you. I recognize that each of you, perhaps except for the government witnesses, have both your written statements and individual testimony. I would suggest that, if you want to deviate from your written statement, remember your entire written statement will be in the record. But I would ask that you remain within the 5 minutes.    With that, Ms. Okun.</t>
   </si>
   <si>
+    <t>Okun</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Okun. Thank you, Chairman Issa, Ranking Member Nadler, and other Members of the Subcommittee. I welcome the opportunity to testify for you today. I have been privileged to be part of the international trade community for more than 25 years. Let me reiterate that I appear today in my personal capacity, and not on behalf of Adduci and Mastriani and Schaumberg, or any of our clients. And, of course, I do not speak for the Commission or for my former colleagues.    My purpose is to share my perspective based on my 12 years serving on the International Trade Commission. I will focus my remarks on a few key points, but will refer you to my written statement.    First, the ITC is an expert trade agency that provides an effective remedy to combat the pervasive problem of infringing imports, providing essential protection to U.S. IPR owners and fostering U.S. competitiveness and innovation.    Second, through its decisions and administrative actions, the ITC has sent a clear message that only entities with substantial domestic ties will succeed. The data demonstrate that NPEs rarely file cases with the ITC, and that particularly with respect to PAEs, they rarely succeed. And it is important to set context. We are talking about a docket of 36 cases this year; and of those 36, 34 of 36 were brought by manufacturing entities. In 2014, it was 36 of 39. At its high water mark in 2011, there were 69 investigations.    So we are talking about a very small docket, which I say will remain so because of the high threshold to succeed, and because of the institutional requirements to be at the ITC.    Third, the ITC, perhaps because it is small, non-partisan, quasi-judicial, has been nimble in addressing litigation issues by pursuing case management and rule changes to reduce the cost and burden of litigation. This type of agency activity should be encouraged, not criticized. We want our most innovative companies to have more, not fewer, tools to address the very real and costly problem of infringement.    In that respect, Section 337, in my view, is functioning as Congress intended, and recent proposals to amend the statute are unnecessary and likely counterproductive. Moreover, our trading partners increasingly recognize that innovation is the fundamental competitive advantage. Countries like China are modifying their laws to strengthen IP protection, and the European Union has moved toward a unitary patent court. It would send the wrong message for the United States to weaken protections at a time when U.S. trade negotiators have been working hard to raise IPR standards in agreements such as TPP and TTIP.    Allow me to elaborate briefly. There is a direct link between the protection of U.S. IPR and American competitiveness. Constitutionally protected patent rights incentivize investments and innovation, a key engine of economic growth. IP-intensive industries account for more than $5 trillion in value added, or approximately 35 percent of GDP.    From a trade perspective, we must have effective border remedies to stop unfairly traded and infringing imports. The ITC serves as the front line in protecting domestic industries. As the Joint Economic Committee found in 2012, infringement of IPR is a pervasive problem that harms companies, consumers, and all levels of government.    Between 2008 and 2015, approximately 80 percent of the products accused in Section 337 were imported from China. And while this hearing is focused on investigations involving patents, Section 337 also covers other unfair acts, such as copyright, trademark, and trade secret laws. Moreover, for many companies, the advantages of expeditious adjudication, experienced ITC judges, in rem jurisdiction, and effective remedies at the border, can make the difference in their commercial success.    The data simply do not support the assertion that the ITC has a patent troll problem. Overall, Section 337 filings have decreased significantly in the past few years, from what was already a low number, particularly compared to district courts. The number of cases institute in each calendar year, from 2000 to 2015, has steadily decreased from 69 to 36. Complainants at the ITC are overwhelmingly domestic industries that manufacture a product.    Moreover, of the 67 exclusion orders issued by the Commission in the last 10 years, only four were on behalf of NPEs. The ITC is not inundated with frivolous cases, nor is its caseload unmanageable. But that does not mean NPEs--and I do mean NPEs, not PAEs--should not have the opportunity to consider the ITC as they evaluate their options for protecting their intellectual property.    Congress acknowledged the critical role of IPR as a source of value by expanding Section 337 in 1988 to cover companies making a substantial investment in a patent's exploitation, including engineering, research and development, or licensing.    Yet over the last 5 years, it has become more difficult to establish a domestic industry and obtain relief and, since 2011, only three NPEs have succeeded in establishing a licensing-based domestic industry. I realize, Mr. Chairman, that my red light is coming on, and I hope that, in listening to Mr. Bianchi's testimony, you will hear about the many actions the ITC has taken to help combat any type of abuse at the ITC. Thank you.</t>
   </si>
   <si>
@@ -97,18 +118,27 @@
     <t xml:space="preserve">    Mr. Issa. Yeah, yeah. For all the witnesses here on the dais, of course, we are familiar with the acronyms. But to the greatest extent possible, at least once in your testimony, make sure that you describe fully, because for the record, a lot of people, including the people behind you in the audience, may not know the shortened terms. Thank you. Mr. Thorne?</t>
   </si>
   <si>
+    <t>Thorne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thorne. There, I have got my microphone. Mr. Chairman, Mr. Ranking Member, and other members of the Subcommittee, thank you for inviting me today.    I have not worked in the government in this area, but I have represented companies on both sides, bringing cases at the ITC, defending cases at the ITC, bringing injunction cases in Federal district court, defending against injunction cases in district court.    And since the written testimony is going to be submitted, I just thought I would summarize a little bit about why, from the private point of view, why would somebody bring a case to the ITC, as opposed to going to district court? And as you have seen in the numbers, that both forums are usually available. We did a quick count of the cases we believe were NPE cases at the ITC--NPE meaning non-practicing entities of the ITC. We did a quick count to see, well, how many of those organizations were American companies that could have been sued in district court?    And the answer is almost all of them. And it is something like two-thirds of all the cases, not just NPE cases, but all of them, actually have a parallel district court case, as the Chairman pointed out at the beginning.    So you have a choice. You can sue at the ITC, you can sue at the district. What are the considerations? I count four. I do not know if, in my 5 minutes, I will get through all four, but the first one is leverage. Just pure leverage.    I have an example similar to the one the Chairman opened with, similar to the Broadcom case, which I was involved in. My example involved one New York company bringing an ITC case against another New York company. One was in Manhattan, the other was in Long Island. They were maybe 20 miles apart. They could have sued in the eastern district of New York, probably in the southern district of New York, maybe other places where they did business. But the plaintiff who I represented picked the ITC because its remedy would be uniquely leveraging--if I can use the L word--it gave power--if we succeeded in obtaining a recommended exclusion order, that would give a lot of leverage.    Now, the defendant, or the respondent in the case was a cable TV company. Most of their business is people installing wires, fiber optic cables to homes, and managing central hubs where the TV signals come in. They engage with programmers, the Hollywood and New York programming.    So almost all of the American activity of the respondent had nothing to do with what we targeted. We targeted the set top boxes, which they imported, or some of the components of the set top box were imported. We had a patent that covered one of the many functions of the set top box.    So you have got a fairly complicated business doing lots of things, but if they want to add a customer, they need another set top box; or if a customer's box breaks, they need to replace the set top box. The set top box itself is kind of complicated, many thousands of functions inside it. We had a patent that addressed one of the functions.    The ITC remedy would allow us to stop them adding customers, because one of the many functions in the set top box was infringing a patent we owned. So we could go to district court, and what I think would have happened at district court is, under the eBay case, under the normal balancing of equities the district courts conduct, the district court would say, ``Well, I see a harm to the plaintiff. Your patent is being infringed.    But I see a much greater harm to the defendant because it is got a large business that will be disrupted if they cannot get set top boxes. In fact, I see a harm to the public because, you know, it is basketball season. You want to watch games.'' And so, if you balance the harms the way a district court does in a normal injunction case, I think the district court would have said, ``Well, let's measure your money damages.'' You will get money for the patent infringement. Maybe over some period of time, the defendant will be required to stop the infringement, but no immediate loss of ability to add customers. That would not have been the remedy at district court. So where do you get leverage? You get leverage at the     Now, I have also brought injunction cases in the district court. I brought a case against a startup telephone company, and I won a damage remedy for $50 million, and I won an injunction, and I then traded the injunction for all the money they had, which was quite a bit more than 50 million. I gave a portion of that to intercity educational charities. We were pleased to do a little bit of good in the case. But you get leverage with an injunction. That was a case where an injunction in district court was deserved, based on the facts. But the difference between a damage remedy and injunctive remedy is, there is a lot of daylight there.    So just briefly, three other reasons that you might consider the ITC instead of a district court, as one of former Commissioner Okun's partners advertises, the ITC is less likely to invalidate patents, just--that is in practice.    The same rules apply, but the ITC tends to throw out a bad patent about half as often as a district court. The ITC will enforce standard essential patents. That is a patent that governs a standard. And last, the ITC does not follow what this Congress passed in 2011 that says you cannot bring in 30 or 40 or 50 different respondents in a single case. You have to sue them individually in district court. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Thanks for your experience. Mr. Whitaker.</t>
   </si>
   <si>
+    <t>Whitaker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitaker. Mr. Chairman and distinguished Members of the Subcommittee, thank you for convening this hearing, and for the opportunity to testify. It is an honor to speak with you regarding this important topic today. I am a partner with Morrison and Foerster, and I have practiced before the ITC, district courts, and Court of Federal Claims for the past 24 years. I am currently the president-elect of the American Intellectual Property Law Association, and serve as a member of the counsel for the ABA section of Intellectual Property Law. I appear today in my individual capacity, however, and not on behalf of my firm or any of its clients, the AIPLA or the ABA.    I offer a few litigator's observations about the ITC's policies and effectiveness in combatting abusive litigation by non-practicing entities, as well as overlapping considerations for litigants bringing patent complaints before the ITC and U.S. district courts, and I do so referring in part to H.R. 4829, entitled Trade Protection Not Troll Protection Act.    Congress intended that the Commission provide the owners of intellectual property rights with broad protections against a wide range of unfair acts of importation. Section 337 is more than a mere surrogate to the district court to the application of U.S. patent laws to infringing imports. Instead, it is directed to trade protection that is informed by U.S. patent law. At bottom, Section 337 protects American jobs and American market strength.    First, with respect to the domestic industry requirement, complainants already have to establish that a U.S. licensing industry exists related to patents being asserted in cases being based on licensing. The proposed legislation would not allow the complainant to rely on the licensing activity unless it is able to show that, ``The license leads to the adoption and development of articles that incorporate the claimed patent.''    While this change could potentially limit the ability of NPEs to use the Section 337 in practice, investigations brought by such entities do not account for many investigations--three in 2014, two in 2015, and just one in the first quarter of 2016. Further, prior to 2014, entities that manufactured and patented articles in the U.S. had a greater burden of proving their domestic industry than entities that relied on their U.S. licensing activities.    As recently confirmed by the Federal circuit, however, establishing a domestic industry based on licensing now requires proof of an article that practices the patent in suit. There also needs to be shown a nexus between the asserted patent and the U.S. investment in that patent when the domestic industry evidence is based on licensing.    With respect to the public interest issues, the Commission introduced new rules that require complainants to submit a separate statement providing specific content with respect to the public interest factors. These rules also provide members of the public, including proposed respondents, an opportunity to respond to the complainant's statement and highlight public interest issues before institutions so the Commission can direct the administrative law judge to make a full record and recommendation on such issues in appropriate cases.    Next, the proposed legislation would require that a licensee join an investigation as a co-complainant in order for licensing activities to qualify under the domestic industry prong. This would require, for example, a research and development entity, such as a university, to persuade one or more of its licensees to agree to be a co-complainant in order to make use of Section 337.    Also, for example, a technology company that licenses some subset of its patent portfolios to others to exploit the technology and that does not exploit that particular technology itself because of its business structure or economic objectives might be impacted negatively by provisions in a bill that tries to reduce NPE filings at the ITC. Remember that Congress intended to open the ITC up to certain non-practicing entities with its 1988 amendments as, ``such a change would enable universities and small businesses who do not have the capital to actually make good in the United States to still have access to the ITC forum for the protection of their rights.'' The Commission also unveiled, as was previously stated, a new 100-day program aimed at providing expedited investigations without burden and cost of a full length of investigation.    For both, legislation may also have the effect of importing the eBay injunction criteria into the ITC's public interest analysis. But the Federal circuit has held that the eBay factors are not applicable in these investigations because of the different statutory underpinnings for relief before the Commission.    Moreover, inadequacy of money damages is not applicable in Section 337 investigations, and as such, there is no equitable balancing of purely private remedial interests, and Congress eliminated the need to establish industry in a domestic--to a domestic industry and investigation covering the statutory acts.    As I see that my time has come to an end, I will leave the balance of my statement for the written record.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. And we thank you. Dr. Scott Morton.</t>
   </si>
   <si>
+    <t>Scott Morton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Scott Morton. Thank you very much, Mr. Chairman, Ranking Members and Members of the Committee, for the invitation to testify today. I am a professor of economics at Yale, I am a former chief economist at the Department of Justice Antitrust Division, and I have worked on a number of ITC cases. The basic problem here is----</t>
   </si>
   <si>
@@ -127,18 +157,27 @@
     <t xml:space="preserve">    Mr. Issa. Thank you. It is now my pleasure to recognize the Chairman of the full Committee, Mr. Goodlatte, for his opening statement.</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Mr. Chairman, thank you for your forbearance. I want to especially thank Mr. Stoll and Mr. Bianchi, to interrupt you right as you were ready to go, but I do have to be in two places at one time, so I want to share my thoughts.    Abusive patent litigation is a drag on our economy. Everyone from independent inventors to startups to mid- and large-size businesses face this constant threat. Many of these lawsuits are filed against small and medium-size businesses, targeting a settlement just under what it would cost for litigation, knowing that these businesses will want to avoid costly litigation and probably pay up. And it is this type of tactic that has made the International Trade Commission a potentially attractive venue for patent cases.    The ITC has at its disposal the ability to issue exclusion orders that block the importation of infringing products into the United States. Since the ITC is a Federal agency and not an Article III court, it makes sense that it is limited to this single remedy.    In recent years, however, patent assertion entities have used the Commission as a forum to assert weak or poorly-issued patents against American businesses. It is evident that there are cases that have come before the ITC that probably should have been litigated exclusively in our U.S. district courts.    Nowhere is the disharmony between patent law and Article III court precedent more on display than the application of exclusion orders in technology cases in the ITC. For example, Congress established an important counterbalance to the blunt sanction of the exclusion order in the public interest test provided under Section 337. The statute requires the ITC to consider public health and welfare, and the impact of an exclusion order on competition in the marketplace before issuing an exclusion order.    Yet the ITC rarely exercises its responsibility to apply the public interest test. This failure to follow the law has particularly damaging results in today's technology markets in which products are often reliant on hundreds or thousands of patents. The ITC has the ability to take certain immediate steps within its statutory authority to correct these problems. The following are some steps stakeholders have recommended the ITC take to address this problem.    First, a return to a pre-2010 domestic industry standard that does not allow legal expenses, airplane flights and the like to satisfy the domestic industry requirement. Second, application of the public interest test and economic interest test at the beginning of Section 337 review for purposes of determining claims consideration, as well as the issuance of exclusion orders.    And third, based on the public interest and economic interest test analysis, articulation of standards that clarify which patent disputes should be adjudicated by the ITC, and those which are more properly addressed by U.S. district courts.    I look forward to hearing from the rest of the witnesses, but I will have to read your testimony since I am about to leave. And I do want to say that in addition to those remedies, I do think the suggestions of Dr. Scott Morton with regard to where the ITC jurisdiction should not exist--and it should be exclusively the jurisdiction of Article III courts--is also worthy of our consideration.    So I thank you all for your testimony here today, and Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Chairman. Mr. Stoll.</t>
   </si>
   <si>
+    <t>Stoll</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stoll. Good morning, Chairman Issa, Ranking Member Nadler, and Members of the Subcommittee. Thank you for inviting me to testify today on patent litigation before the International Trade Commission. It is an honor to be here today to discuss this very important topic. My name is Tom Stoll, and for the last several years I have been advising clients and employers, including the ABA's Intellectual Property Law section, the Boeing Company, the USPTO, and the White House on issues relating to IP litigation and IP-related legislation, including proposed changes to the laws to limit litigation abuse in district courts and the ITC.    My advice is informed by more than 20 years of IP litigation experience with law firms, the USPTO's solicitor's Oofice, as a law clerk and staff attorney with the Federal circuit, all in cases filed in district courts, the ITC, the Federal circuit, and the U.S. Supreme Court. I would like to emphasize that I am testifying on my own behalf today and not on behalf of my current client, the ABA.    While ITC filings by patent owners certainly spiked in 2011, over the last few years the ITC has made great strides in reducing the risk that ITC proceedings can be misused. The ITC's own statistics show that the number of investigations instituted has dropped to historically consistent numbers, and that the number of filings by non-practicing entities is lower than it was before the jump in overall filings.    To the extent the ITC had a patent troll problem, it appears the Commission has addressed it. U.S. patent laws are extremely beneficial to society, by providing the incentive for inventors and companies to invest in the development of groundbreaking new technologies, knowing their investment can be protected, often enabling startups and other small companies to secure the funding they need to grow.    The ITC is charged with preventing unfair trade practices, including the theft or unauthorized use of intellectual property. It has the extraordinary authority to issue general exclusion orders barring all imports that infringe a patent.    In the U.S. Supreme Court's 2006 decision in eBay vs. MercExchange, the court held that a district court cannot automatically issue an injunction in a patent case. Patent owners, including non-practicing entities, began asserting their patents in the ITC with much greater frequency. The ITC had become a more attractive venue for those seeking the threat of an injunction, and many argued, was being used to extract unjust settlements.    Two recent developments, however, have significantly reduced the risk that an ITC proceeding based on frivolous claims could be used to unjustly extract a settlement. First, the Commission has applied the domestic industry requirement much more rigorously. Second, the ITC has instituted a 100-day program to quickly dispense with cases that lack merit, and thereby preventing abuse.    Additionally, recent U.S. Supreme Court decisions significantly limiting the scope of patent-eligible subject matter and requiring greater clarity and patent claiming may also deter some patent owners from filing claims of infringement in the ITC. As a result, the number of cases instituted by the ITC has dropped in recent years from 69 in 2011 to 36 in 2015. Non-practicing entities were the complainants in only two of the 36 investigations instituted last year.    Let me explain how the ITC has changed its application of the domestic industry requirement. Under that requirement, a party much show that there is a significant or substantial investment in a U.S. industry that requires protection. Until very recently, a patent owner could satisfy the requirement simply by establishing the substantiality of its economic investment and licensing activities.    In the last few years, however, the Commission began to require more, and the Federal circuit now seems to agree. In Motiva, for example, the Federal circuit affirmed the Commission's finding of no domestic industry, stressing that the complainant must show that the licensing program was being used to encourage adoption and development of articles that incorporated the patented technology.    In LSI, the Federal circuit again affirmed a Commission determination that a domestic industry did not exist because the complainant's licensing activities did not relate specifically to articles protected by the asserted patent.    The ITC's new 100-day program is designed to help companies avoid the significant expense associated with litigating a full-blown proceeding where the claim is baseless, and to deter those seeking to leverage that expense to extract an unjust settlement. It enables the Commission to quickly resolve an investigation by requiring that the ALJ rule on a dispositive issue, such as lack of domestic industry, within 100 days of institution of the investigation.    These efforts and the resulting reduction, in the number of cases that have been instituted in the last few years, appear to have gone far to address concerns that the ITC has become an attractive forum for patent owners whose cases lack merit, and who seek to leverage this proceeding to extract an unjust settlement. I am grateful to the Subcommittee for taking the time to conduct this hearing and for taking a close look at this important issue. I am honored to have been invited to speak with you today, and look forward to answering your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Mr. Bianchi.</t>
   </si>
   <si>
+    <t>Bianchi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bianchi. Mr. Chairman and distinguished Members of the Subcommittee, my name is Dominic Bianchi, and I am the general counsel of the U.S. International Trade Commission. Thank you for inviting me to appear today before you. As Mr. Conyers noted earlier on, the Commission is an independent quasi-judicial Federal agency. We are actually more unique than any other independent agency or commission that is out there. We do not do policy. We do not address policy. That is for Congress and the executive branch to do.    So I want to assure you that the Commission implements the law that Congress has passed. We will continue to implement that, based on the interpretations by the Federal circuit until Congress amends the law. If Congress does amend the law or the Federal circuit changes one of our decisions, we will implement that policy.    In Section 337 cases, however, the Commission sits akin to an Article III Court, as mentioned before, in hearing cases. The overwhelming majority of investigations that occur under the Section 337 before the Commission are based on claims of patent infringement. If a violation is found, as noted earlier, the statute allows for only two types of remedies, at the ITC--an exclusion order and/or a cease-and-desist order.    The Commission focuses on conducting expeditious, fair, and technically sound decision-making to resolve allegations of intellectual property infringement and other unfair acts. Similar to the Federal courts, a Section 337 investigation includes all aspects of patent disputes, including topics relating to validity, infringement, remedy, and competitive conditions. We apply the same law that the district courts do.    What differentiates the Commission, however, from Federal courts is that the Commission does not institute an investigation before the sufficiency of a complaint is assessed. This assessment includes the agency requesting input from the potential respondents and the public regarding whether there are statutory public interest considerations raised by the complaint. At the time of institution, if the Commission determines that there are any particular case-dispositive issues that may resolve the investigation within a matter of months, it may place it in an early disposition program, as mentioned earlier today.    Also as you have heard, the Commission has established a practice of responding to community input by initiating a variety of programs to more efficiently and expeditiously bring to a close those matters that otherwise would impose undue costs on parties, the Commission, and the broader system.    The Commission also determines whether the public interest considerations warrant the development of a full factual record regarding the statutory public interest factors, and thus it can delegate this issue to the administrative law judge for fact-finding. Once the investigation begins, the agency develops a complete administrative record based on discovery, provides a full and fair opportunity for the parties to present testimony and cross-examination at a hearing, and provides the parties with the opportunity to provide written briefs. The Commission staffs its investigatory process with IP experts, IP attorneys and qualified ALJs solely dedicated to adjudicating IP cases.    After the ALJ issues a final, initial determination, the parties have the opportunity to petition the Commission for review. Typically, if the Commission determines to review, it will ask the parties to respond to specific questions, including specific questions regarding the public interest factors.    If the Commission finds a violation and a remedy, and issues a remedy, the President of the United States has 60 days to review the order and determine whether to disapprove the order on policy grounds. Appeals of the Commission's decisions in Section 337 investigations are made to the U.S. Court of Appeals for the Federal Circuit--the same court that reviews patent decisions of the district courts.    The Commission recognizes the statutory mandate to resolve cases at the earliest practical time and has taken a variety of steps to do so. These include developing pilot programs, developing new procedural rules, and substantial investment in the Commission's electronic record system for case management. The Commission routinely seeks input in its processes and diligently considers feedback from stakeholders on ways to improve the processes and procedures. I welcome the Committee's views. Thank you.</t>
   </si>
   <si>
@@ -298,6 +337,12 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman. Dr. Scott Morton, you talked about there should be situations where the courts, Federal courts, should be involved, and not the ITC. Could you give me an example or two of a case or cases, any why?</t>
   </si>
   <si>
@@ -412,6 +457,12 @@
     <t>412379</t>
   </si>
   <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chu. Mr. Thorne, you and other witnesses argue that the Supreme Court's decision in eBay vs. MercExchange, which made receiving an injunction more difficult in Federal court, had the effect of entities moving forward to the International Trade Commission. At the ITC, these entities could pursue an exclusion order with less vigorous tests. You also state that the ITC is an attractive forum for non-practicing entities because the ITC and district courts apply divergent joinder rules. Could you describe what effect this has on cases moving forward at the ITC?</t>
   </si>
   <si>
@@ -454,6 +505,12 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair. Thanks to all of you for spending time with us today. As you know, the DOJ opposes mergers or acquisitions when it finds that a transaction would unduly concentrate market share, eliminate competition to the detriment of consumers. So, for example, GE withdrew an attempted sale of its appliance business to Electrolux after the DOJ filed suit to block the sale based on similar types of concerns.    So I wanted to start with Dr. Morton. Do you think some of the same market conditions appear in ITC investigations and--where a complainant seeks to ban a large percentage of products and players in question?</t>
   </si>
   <si>
@@ -496,6 +553,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair. And I want to thank the witnesses for your presence here today and the informative testimony today. I will start with Ms. Okun. The ITC proceedings are limited in terms of the ultimate remedy to equitable relief. Is that correct?</t>
   </si>
   <si>
@@ -554,6 +617,12 @@
   </si>
   <si>
     <t>400245</t>
+  </si>
+  <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman, and thanks for this hearing and to each one of the witnesses for their useful testimony in making the issues before us very clear. I will be honest. The current jurisdiction of the ITC does seem at odds with manufacturing practices. I mean, if you have an American company that does some of its manufacturing overseas, it is still an American company, and that is frequently the case. So I am just not seeing what the value added is to have dual jurisdiction. And I think the idea that if you filed or you could have filed as an exclusion of jurisdiction makes a lot of sense to me.    I also think in terms of, you know, I do not think eBay got enough credit for what it did. I mean, eBay is a company in my district and they spent a lot of money and a lot of time pursuing a case they could have settled and successfully, and it did a world of good for the whole technology sector because prior to eBay, it was extortion time. And that potential for extortion exists, I think, in the ITC. That does not mean the Commissioners even see it because it is happening before it gets to you. So that is an additional reason not to undercut what the Supreme Court did. And I think we have got that situation now.    But I want to talk about another issue, and it relates to copyright. It is been reported last year that some copyright holders were considering using the FTC to force IS Internet service providers to block allegedly-infringing websites. Now this was a proposal that would trample the safe harbor protections in the DMCA. But it also was a remedy that Congress rejected in the Stop Online Piracy Act.    And I am sure all of us who were in Congress at that time remember the complete meltdown in the Congress. The phones were off the hook. We got seven million emails in an hour, and the country was up in arms about it. So, I understand that the Federal Circuit Court overturned the ITC decision. They have just rejected en banc a rehearing.    But I am wondering if we ought to make it very clear to the ITC that they do not have jurisdiction over digital transmissions to avoid--I mean, the fact that they would do something like that is shocking to me. And, you know, for the survivors of the SOPA markup here, and I am sure the Chairman recalls it very well, we do not want to get in that environment again. Dr. Morton, I mean you are nodding your head, what--do you have a comment--anybody who wants to comment on that I would welcome the----</t>
@@ -1064,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1141,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,5189 +1163,6064 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G81" t="s">
+        <v>107</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G83" t="s">
+        <v>107</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G87" t="s">
+        <v>107</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G89" t="s">
+        <v>107</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>93</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G91" t="s">
+        <v>107</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s">
+        <v>107</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>93</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s">
+        <v>107</v>
+      </c>
       <c r="H95" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>53</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s">
+        <v>107</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>93</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s">
+        <v>107</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G101" t="s">
+        <v>107</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>93</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G103" t="s">
+        <v>107</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>53</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>93</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G105" t="s">
+        <v>107</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>53</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>53</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G109" t="s">
+        <v>107</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>53</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G111" t="s">
+        <v>107</v>
+      </c>
       <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G113" t="s">
+        <v>107</v>
+      </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>53</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>93</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G115" t="s">
+        <v>107</v>
+      </c>
       <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>53</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>93</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G117" t="s">
+        <v>107</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G119" t="s">
+        <v>147</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G121" t="s">
+        <v>147</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>50</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G123" t="s">
+        <v>147</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G125" t="s">
+        <v>147</v>
+      </c>
       <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G127" t="s">
+        <v>147</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G130" t="s">
+        <v>147</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G132" t="s">
+        <v>163</v>
+      </c>
       <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>40</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>145</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G134" t="s">
+        <v>163</v>
+      </c>
       <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>53</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>145</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G136" t="s">
+        <v>163</v>
+      </c>
       <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>145</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G139" t="s">
+        <v>163</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>145</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G141" t="s">
+        <v>163</v>
+      </c>
       <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>40</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>145</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G143" t="s">
+        <v>163</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>159</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G145" t="s">
+        <v>179</v>
+      </c>
       <c r="H145" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>159</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G147" t="s">
+        <v>179</v>
+      </c>
       <c r="H147" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>159</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G149" t="s">
+        <v>179</v>
+      </c>
       <c r="H149" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>53</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G152" t="s">
+        <v>179</v>
+      </c>
       <c r="H152" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>53</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>159</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G154" t="s">
+        <v>179</v>
+      </c>
       <c r="H154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>53</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>159</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G156" t="s">
+        <v>179</v>
+      </c>
       <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>53</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>159</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G158" t="s">
+        <v>179</v>
+      </c>
       <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>159</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G161" t="s">
+        <v>179</v>
+      </c>
       <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>179</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G164" t="s">
+        <v>201</v>
+      </c>
       <c r="H164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I164" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>40</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>179</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G166" t="s">
+        <v>201</v>
+      </c>
       <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>40</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>179</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G168" t="s">
+        <v>201</v>
+      </c>
       <c r="H168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>40</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>179</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G170" t="s">
+        <v>201</v>
+      </c>
       <c r="H170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>40</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>179</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G172" t="s">
+        <v>201</v>
+      </c>
       <c r="H172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I172" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>40</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>179</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G174" t="s">
+        <v>201</v>
+      </c>
       <c r="H174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I174" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>34</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>179</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G176" t="s">
+        <v>201</v>
+      </c>
       <c r="H176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I176" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>34</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>179</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G178" t="s">
+        <v>201</v>
+      </c>
       <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>179</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G180" t="s">
+        <v>201</v>
+      </c>
       <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I180" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>179</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G182" t="s">
+        <v>201</v>
+      </c>
       <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I182" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>179</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G184" t="s">
+        <v>201</v>
+      </c>
       <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I184" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>179</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G186" t="s">
+        <v>201</v>
+      </c>
       <c r="H186" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>22</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>34</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>22</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>34</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>40</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>27</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>22</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>27</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>22</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>50</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>22</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G199" t="s">
+        <v>50</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>40</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>37</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>34</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>27</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>34</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G212" t="s">
+        <v>34</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
       <c r="H213" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G214" t="s">
+        <v>27</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s">
+        <v>17</v>
+      </c>
       <c r="H216" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I216" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>233</v>
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99782.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99782.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Issa</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400289</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Nadler</t>
   </si>
   <si>
@@ -335,6 +344,9 @@
   </si>
   <si>
     <t>412468</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Marino</t>
@@ -1133,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,7 +1153,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,6061 +1178,6504 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>43</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>43</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H91" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G95" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H95" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>53</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G97" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H97" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>53</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G99" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H99" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>53</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H101" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>53</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>56</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G103" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H103" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>53</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>56</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G105" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H105" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>53</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>53</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>56</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G109" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H109" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G111" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H111" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>53</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>56</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G113" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H113" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>53</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G115" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H115" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>53</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>56</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G117" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H117" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>34</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>37</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>53</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G127" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G130" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G132" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H132" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>40</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>43</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G134" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H134" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>53</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>56</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G136" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>34</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G139" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>37</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G141" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I141" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>40</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G143" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I143" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G145" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I145" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G147" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I147" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>30</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G149" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I149" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>30</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>53</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>56</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G152" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>53</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>56</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G154" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>53</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>56</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G156" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I156" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>53</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>56</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G158" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H158" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I158" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>30</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G161" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="H161" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I161" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G164" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H164" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I164" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J164" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>40</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G166" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J166" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>40</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>43</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G168" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J168" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>40</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>43</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G170" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I170" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J170" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>40</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>43</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G172" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I172" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J172" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>40</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>43</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G174" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I174" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J174" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>34</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>37</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G176" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I176" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J176" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>34</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>37</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G178" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H178" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I178" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J178" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>34</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>37</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G180" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I180" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>34</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>37</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G182" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H182" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I182" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J182" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G184" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H184" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I184" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G186" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="H186" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I186" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J186" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>22</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>25</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>34</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>37</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>22</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>25</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>34</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>37</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s">
-        <v>40</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>43</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>27</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>30</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s">
-        <v>22</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>25</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>27</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>30</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s">
-        <v>22</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>25</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>50</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>53</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>22</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>25</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>21</v>
-      </c>
-      <c r="G199" t="s">
-        <v>50</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>53</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s">
-        <v>40</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>43</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" t="s">
-        <v>37</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>40</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>22</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>25</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I205" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J205" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s">
-        <v>34</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>37</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I207" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J207" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
-      </c>
-      <c r="G208" t="s">
-        <v>34</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>37</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>21</v>
-      </c>
-      <c r="G209" t="s">
-        <v>27</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>30</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s">
-        <v>34</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>37</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I211" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J211" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" t="s">
-        <v>34</v>
-      </c>
-      <c r="H212" t="s"/>
-      <c r="I212" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
+        <v>37</v>
+      </c>
+      <c r="I212" t="s"/>
+      <c r="J212" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I213" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J213" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>21</v>
-      </c>
-      <c r="G214" t="s">
-        <v>27</v>
-      </c>
-      <c r="H214" t="s"/>
-      <c r="I214" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s"/>
+      <c r="H214" t="s">
+        <v>30</v>
+      </c>
+      <c r="I214" t="s"/>
+      <c r="J214" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I215" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J215" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G216" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H216" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I216" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J216" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I217" t="s">
-        <v>256</v>
+        <v>16</v>
+      </c>
+      <c r="J217" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
